--- a/cbrunner/Parameters/Parameters_WasteFractionRegression.xlsx
+++ b/cbrunner/Parameters/Parameters_WasteFractionRegression.xlsx
@@ -440,77 +440,77 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1316.033068905543</v>
+        <v>1316.033068905452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.183544463226373</v>
+        <v>-0.1835444632742332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.013650513948026e-10</v>
+        <v>-2.127470700075166e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.617816723770338</v>
+        <v>7.617816723768826</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4831807271966672</v>
+        <v>-0.483180727196434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9652303133022727</v>
+        <v>0.9652303133023177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.881321790505944</v>
+        <v>2.881321790506501</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12.13934561160295</v>
+        <v>12.13934561159988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.273623991959426</v>
+        <v>-1.27362399195934</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.296144367475732</v>
+        <v>-3.296144367475768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7773330036880132</v>
+        <v>0.7773330036880772</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.549935303458343</v>
+        <v>-1.549935303458329</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.05527081352788198</v>
+        <v>-0.05527081352791796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.393362795488348</v>
+        <v>1.39336279548843</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8.819504050771664</v>
+        <v>8.819504050771135</v>
       </c>
     </row>
     <row r="17">
@@ -520,137 +520,137 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.175351164685424</v>
+        <v>1.175351164685378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4382116840219351</v>
+        <v>0.438211684021893</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.127068239165074</v>
+        <v>1.1270682391652</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8368460570060324</v>
+        <v>0.836846057006062</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.156243409631643</v>
+        <v>5.156243409631603</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>32.92382903546197</v>
+        <v>32.92382903546226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6292361546745504</v>
+        <v>0.6292361546745887</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.027324593392066</v>
+        <v>2.027324593392194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4623409463508547</v>
+        <v>0.4623409463510174</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.8579407245297271</v>
+        <v>-0.8579407245295529</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.653675982208054</v>
+        <v>4.653675982208222</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-2.237938101284584</v>
+        <v>-2.237938101284465</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-7.072416989800929</v>
+        <v>-7.072416989800611</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.815052407446556</v>
+        <v>2.815052407446664</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-4.388040389983622</v>
+        <v>-4.38804038998309</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.1138254951225129</v>
+        <v>0.113825495122581</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.4894454614504273</v>
+        <v>-0.4894454614501481</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.830091698604055</v>
+        <v>2.830091698604392</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34.74605934741698</v>
+        <v>34.74605934741746</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17.33011032604308</v>
+        <v>17.33011032604352</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.667533405378286</v>
+        <v>6.667533405378433</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.113467328028857</v>
+        <v>3.113467328029291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.807176125569359</v>
+        <v>-0.8071761255694351</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-4.435448188466818</v>
+        <v>-4.435448188466653</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.6527781616272896</v>
+        <v>-0.652778161627244</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.02535673980455363</v>
+        <v>0.02535673980455199</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.02027072151346711</v>
+        <v>0.02027072151347359</v>
       </c>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_WasteFractionRegression.xlsx
+++ b/cbrunner/Parameters/Parameters_WasteFractionRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,217 +440,227 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1316.033068905452</v>
+        <v>1224.817995258746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1835444632742332</v>
+        <v>90.60000753258592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.127470700075166e-10</v>
+        <v>93.65912909669107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.617816723768826</v>
+        <v>98.42675097562891</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.483180727196434</v>
+        <v>-4.766394440229772e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9652303133023177</v>
+        <v>95.5622258146588</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.881321790506501</v>
+        <v>93.87365982950958</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12.13934561159988</v>
+        <v>93.44409853506183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.27362399195934</v>
+        <v>94.20346652171349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.296144367475768</v>
+        <v>-8.97360573071597e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7773330036880772</v>
+        <v>93.94431878344695</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.549935303458329</v>
+        <v>93.79348897515202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.05527081352791796</v>
+        <v>91.30434574796256</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.39336279548843</v>
+        <v>95.78460974404157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8.819504050771135</v>
+        <v>93.75550884679014</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.148439720096722</v>
+        <v>96.46638484927212</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.175351164685378</v>
+        <v>2.901096598206554</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.438211684021893</v>
+        <v>18.88474906854691</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.1270682391652</v>
+        <v>6.717849836416221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.836846057006062</v>
+        <v>6.025523674164199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.156243409631603</v>
+        <v>5.047162571523089</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>32.92382903546226</v>
+        <v>1.851928078908308</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6292361546745887</v>
+        <v>3.214044282625956</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.027324593392194</v>
+        <v>7.528168229290463</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4623409463510174</v>
+        <v>2.514862314091787</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.8579407245295529</v>
+        <v>1.286151558168225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.653675982208222</v>
+        <v>1.022927712993011</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-2.237938101284465</v>
+        <v>-3.982182408378848</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-7.072416989800611</v>
+        <v>6.94092126262931</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.815052407446664</v>
+        <v>-5.513889265246462</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-4.38804038998309</v>
+        <v>-3.364188497771272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.113825495122581</v>
+        <v>1.601363422303355</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.4894454614501481</v>
+        <v>-4.203119226027513</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.830091698604392</v>
+        <v>-0.3225276815084099</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34.74605934741746</v>
+        <v>4.545553951406756</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17.33011032604352</v>
+        <v>4.406562342497679</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.667533405378433</v>
+        <v>29.26804784347833</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.113467328029291</v>
+        <v>10.91418514040712</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.8071761255694351</v>
+        <v>11.32889557972373</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-4.435448188466653</v>
+        <v>3.910809297265306</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.652778161627244</v>
+        <v>3.573371433771109</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.02535673980455199</v>
+        <v>-3.78141773271902</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.02027072151347359</v>
+        <v>-0.6505566903233559</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-0.0009628601123648741</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-0.05926313433021019</v>
       </c>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_WasteFractionRegression.xlsx
+++ b/cbrunner/Parameters/Parameters_WasteFractionRegression.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +49,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,250 +365,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:1">
+      <c r="A2">
         <v>1224.817995258746</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>90.60000753258592</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:1">
+      <c r="A4">
         <v>93.65912909669107</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:1">
+      <c r="A5">
         <v>98.42675097562891</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-4.766394440229772e-11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>-4.766394440229772E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
         <v>95.5622258146588</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:1">
+      <c r="A8">
         <v>93.87365982950958</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:1">
+      <c r="A9">
         <v>93.44409853506183</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:1">
+      <c r="A10">
         <v>94.20346652171349</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-8.97360573071597e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>-8.97360573071597E-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
         <v>93.94431878344695</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:1">
+      <c r="A13">
         <v>93.79348897515202</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:1">
+      <c r="A14">
         <v>91.30434574796256</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:1">
+      <c r="A15">
         <v>95.78460974404157</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:1">
+      <c r="A16">
         <v>93.75550884679014</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:1">
+      <c r="A17">
         <v>96.46638484927212</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:1">
+      <c r="A18">
         <v>2.901096598206554</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:1">
+      <c r="A19">
         <v>18.88474906854691</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:1">
+      <c r="A20">
         <v>6.717849836416221</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:1">
+      <c r="A21">
         <v>6.025523674164199</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:1">
+      <c r="A22">
         <v>5.047162571523089</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:1">
+      <c r="A23">
         <v>1.851928078908308</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:1">
+      <c r="A24">
         <v>3.214044282625956</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:1">
+      <c r="A25">
         <v>7.528168229290463</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:1">
+      <c r="A26">
         <v>2.514862314091787</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:1">
+      <c r="A27">
         <v>1.286151558168225</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1">
+      <c r="A28">
         <v>1.022927712993011</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:1">
+      <c r="A29">
         <v>-3.982182408378848</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:1">
+      <c r="A30">
         <v>6.94092126262931</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:1">
+      <c r="A31">
         <v>-5.513889265246462</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:1">
+      <c r="A32">
         <v>-3.364188497771272</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1">
+      <c r="A33">
         <v>1.601363422303355</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:1">
+      <c r="A34">
         <v>-4.203119226027513</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:1">
+      <c r="A35">
         <v>-0.3225276815084099</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:1">
+      <c r="A36">
         <v>4.545553951406756</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:1">
+      <c r="A37">
         <v>4.406562342497679</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:1">
+      <c r="A38">
         <v>29.26804784347833</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:1">
+      <c r="A39">
         <v>10.91418514040712</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1">
+      <c r="A40">
         <v>11.32889557972373</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:1">
+      <c r="A41">
         <v>3.910809297265306</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:1">
+      <c r="A42">
         <v>3.573371433771109</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:1">
+      <c r="A43">
         <v>-3.78141773271902</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1">
+      <c r="A44">
         <v>-0.6505566903233559</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:1">
+      <c r="A45">
         <v>-0.0009628601123648741</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:1">
+      <c r="A46">
         <v>-0.05926313433021019</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>